--- a/data/douradonis/excel/802576637_2025_invoices.xlsx
+++ b/data/douradonis/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,64 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011622878368</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9480</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>69,29</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>16,63</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>85,92</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>9480</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/douradonis/excel/802576637_2025_invoices.xlsx
+++ b/data/douradonis/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,60 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011600281002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60939</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>33,06</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>40,99</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>60939</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/douradonis/excel/802576637_2025_invoices.xlsx
+++ b/data/douradonis/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011605611275</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>095736139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00ΤΔΓ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>82,27</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>19,74</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>102,01</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
